--- a/biology/Botanique/Clarkia/Clarkia.xlsx
+++ b/biology/Botanique/Clarkia/Clarkia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clarkia est un genre appartenant aux angiospermes et à la famille des Onagraceae. Plus de 40 espèces sont actuellement classifiées dans le genre Clarkia. Presque toutes sont originaires du Nord-Ouest américain, seule une espèce (Clarkia tenella) est originaire d'Amérique du Sud.
 Les Clarkia sont des plantes annuelles, d'une hauteur de maximale de 1,5 m. Leurs feuilles sont petites et simples de 1 à 10 cm de longueur en fonction de l'espèce. Leurs fleurs ont quatre sépales et quatre pétales.
@@ -515,7 +527,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces sont cultivées comme plantes ornementales des jardins, telles le Clarkia élégant (Clarkia unguiculata), la Clarkia speciosa, la Clarkia amoena et la Clarkia bottae et présentent plusieurs variétés.
 </t>
@@ -546,7 +560,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Clarkia comprend plus de 40 espèces parmi lesquelles :
 Clarkia affinis (en)
@@ -619,7 +635,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Clarkia » (voir la liste des auteurs).
 Sur les autres projets Wikimedia :
